--- a/2.项目/7.模型入库自动化/模型自动化入库模板_招银资管_房地产.xlsx
+++ b/2.项目/7.模型入库自动化/模型自动化入库模板_招银资管_房地产.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
   <si>
     <t>模型代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -60,10 +60,6 @@
   <si>
     <t>客户</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商资管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LOGIT_MAPPING</t>
@@ -344,31 +340,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ff</t>
+    <t>招银资管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -875,7 +847,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -892,51 +864,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="24">
         <v>2958465</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -975,69 +921,69 @@
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" ht="31" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="D1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="18">
         <v>0.35</v>
@@ -1046,10 +992,10 @@
         <v>-2.5139098088887599</v>
       </c>
       <c r="F2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>28</v>
       </c>
       <c r="P2" s="18">
         <v>1</v>
@@ -1063,13 +1009,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="18">
         <v>0.65</v>
@@ -1101,7 +1047,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1111,18 +1057,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1148,27 +1094,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="21">
         <v>-2.1800999999999999</v>
@@ -1211,60 +1157,60 @@
   <sheetData>
     <row r="1" spans="1:15" ht="31" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="23">
@@ -1292,18 +1238,18 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="23">
@@ -1331,18 +1277,18 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="23">
@@ -1370,18 +1316,18 @@
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="23">
@@ -1409,18 +1355,18 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="23">
@@ -1448,18 +1394,18 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="23">
@@ -1487,18 +1433,18 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="23">
@@ -1526,18 +1472,18 @@
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="23">
@@ -1563,18 +1509,18 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="23">
@@ -1602,18 +1548,18 @@
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="23">
@@ -1639,18 +1585,18 @@
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="23">
@@ -1676,18 +1622,18 @@
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="23">
@@ -1713,7 +1659,7 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
